--- a/Project/Data/Water/Cantons/SG/SG 2009.xlsx
+++ b/Project/Data/Water/Cantons/SG/SG 2009.xlsx
@@ -21,32 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
-  <si>
-    <t>mation</t>
-  </si>
-  <si>
-    <t>pompes)</t>
-  </si>
-  <si>
-    <t>Hiver</t>
-  </si>
-  <si>
-    <t>Eté</t>
-  </si>
-  <si>
-    <t>Année</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>(m3/s)</t>
   </si>
   <si>
-    <t>(MW)</t>
-  </si>
-  <si>
-    <t>(GWh)</t>
-  </si>
-  <si>
     <t>Stadtbruecke</t>
   </si>
   <si>
@@ -180,6 +159,36 @@
   </si>
   <si>
     <t>Burentobel</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>idx2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>(MW1)</t>
+  </si>
+  <si>
+    <t>(MW2)</t>
+  </si>
+  <si>
+    <t>(GWh) Winter</t>
+  </si>
+  <si>
+    <t>(GWh) Summer</t>
+  </si>
+  <si>
+    <t>(GWh) Year</t>
   </si>
 </sst>
 </file>
@@ -238,11 +247,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -582,685 +592,718 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="E1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>106800</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1820</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1978</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.29</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>106800</v>
+        <v>403400</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>1820</v>
+        <v>1836</v>
       </c>
       <c r="E3" s="2">
-        <v>1978</v>
+        <v>1990</v>
       </c>
       <c r="F3" s="3">
-        <v>9.6999999999999993</v>
+        <v>2.4</v>
       </c>
       <c r="G3" s="3">
-        <v>0.33</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="H3" s="3">
-        <v>0.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="I3" s="3">
-        <v>0.56000000000000005</v>
+        <v>3.7</v>
       </c>
       <c r="J3" s="3">
-        <v>0.73</v>
+        <v>7.8</v>
       </c>
       <c r="K3" s="3">
-        <v>1.29</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>403400</v>
+        <v>106900</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1836</v>
+        <v>1861</v>
       </c>
       <c r="E4" s="2">
-        <v>1990</v>
+        <v>2002</v>
       </c>
       <c r="F4" s="3">
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3">
-        <v>2.3199999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="H4" s="3">
-        <v>2.3199999999999998</v>
+        <v>0.94</v>
       </c>
       <c r="I4" s="3">
-        <v>3.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J4" s="3">
-        <v>7.8</v>
+        <v>2.8</v>
       </c>
       <c r="K4" s="3">
-        <v>11.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>106900</v>
+        <v>107100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="E5" s="2">
-        <v>2002</v>
+        <v>1981</v>
       </c>
       <c r="F5" s="3">
-        <v>12</v>
+        <v>9.84</v>
       </c>
       <c r="G5" s="3">
-        <v>0.98</v>
+        <v>0.32</v>
       </c>
       <c r="H5" s="3">
-        <v>0.94</v>
+        <v>0.31</v>
       </c>
       <c r="I5" s="3">
-        <v>2.2000000000000002</v>
+        <v>0.96</v>
       </c>
       <c r="J5" s="3">
-        <v>2.8</v>
+        <v>1.04</v>
       </c>
       <c r="K5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>107100</v>
+        <v>402700</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="E6" s="2">
-        <v>1981</v>
+        <v>1993</v>
       </c>
       <c r="F6" s="3">
-        <v>9.84</v>
+        <v>1.25</v>
       </c>
       <c r="G6" s="3">
-        <v>0.32</v>
+        <v>1.45</v>
       </c>
       <c r="H6" s="3">
-        <v>0.31</v>
+        <v>1.45</v>
       </c>
       <c r="I6" s="3">
-        <v>0.96</v>
+        <v>1.6</v>
       </c>
       <c r="J6" s="3">
-        <v>1.04</v>
+        <v>5.74</v>
       </c>
       <c r="K6" s="3">
-        <v>2</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>402700</v>
+        <v>402300</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>1866</v>
+        <v>1878</v>
       </c>
       <c r="E7" s="2">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="F7" s="3">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="G7" s="3">
-        <v>1.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H7" s="3">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="3">
-        <v>1.6</v>
+        <v>0.96</v>
       </c>
       <c r="J7" s="3">
-        <v>5.74</v>
+        <v>1.68</v>
       </c>
       <c r="K7" s="3">
-        <v>7.34</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>402300</v>
+        <v>104800</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>1878</v>
+        <v>1892</v>
       </c>
       <c r="E8" s="2">
-        <v>2003</v>
+        <v>1956</v>
       </c>
       <c r="F8" s="3">
-        <v>2.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G8" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="H8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.96</v>
+        <v>0.52</v>
       </c>
       <c r="J8" s="3">
-        <v>1.68</v>
+        <v>0.8</v>
       </c>
       <c r="K8" s="3">
-        <v>2.64</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>104800</v>
+        <v>107200</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="E9" s="2">
-        <v>1956</v>
+        <v>1967</v>
       </c>
       <c r="F9" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="G9" s="3">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="H9" s="3">
-        <v>0.52</v>
+        <v>0.31</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.25</v>
       </c>
       <c r="J9" s="3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K9" s="3">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>107200</v>
+        <v>402750</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="E10" s="2">
-        <v>1967</v>
+        <v>1992</v>
       </c>
       <c r="F10" s="3">
-        <v>4.8</v>
+        <v>0.13</v>
       </c>
       <c r="G10" s="3">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="H10" s="3">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="3">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="J10" s="3">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="K10" s="3">
-        <v>0.65</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>402750</v>
+        <v>107700</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>1895</v>
       </c>
       <c r="E11" s="2">
-        <v>1992</v>
+        <v>2003</v>
       </c>
       <c r="F11" s="3">
-        <v>0.13</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G11" s="3">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="H11" s="3">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="I11" s="3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J11" s="3">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K11" s="3">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>107700</v>
+        <v>106600</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="E12" s="2">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="F12" s="3">
-        <v>4.0999999999999996</v>
+        <v>8.5</v>
       </c>
       <c r="G12" s="3">
-        <v>0.48</v>
+        <v>1.9</v>
       </c>
       <c r="H12" s="3">
-        <v>0.48</v>
+        <v>1.6</v>
       </c>
       <c r="I12" s="3">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J12" s="3">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="K12" s="3">
-        <v>3</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>106600</v>
+        <v>105100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="E13" s="2">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="F13" s="3">
-        <v>8.5</v>
+        <v>0.35</v>
       </c>
       <c r="G13" s="3">
-        <v>1.9</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H13" s="3">
-        <v>1.6</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I13" s="3">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="J13" s="3">
-        <v>3.5</v>
+        <v>2.83</v>
       </c>
       <c r="K13" s="3">
-        <v>4.9000000000000004</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>105100</v>
+        <v>106100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="E14" s="2">
-        <v>1989</v>
+        <v>2003</v>
       </c>
       <c r="F14" s="3">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="G14" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="H14" s="3">
-        <v>1.1200000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="I14" s="3">
-        <v>1.82</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J14" s="3">
-        <v>2.83</v>
+        <v>1.28</v>
       </c>
       <c r="K14" s="3">
-        <v>4.6500000000000004</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>106100</v>
+        <v>105500</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="E15" s="2">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="F15" s="3">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G15" s="3">
-        <v>0.54</v>
+        <v>1.43</v>
       </c>
       <c r="H15" s="3">
-        <v>0.54</v>
+        <v>0.96</v>
       </c>
       <c r="I15" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="J15" s="3">
-        <v>1.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="K15" s="3">
-        <v>2.38</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>105500</v>
+        <v>107500</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E16" s="2">
-        <v>1996</v>
+        <v>1976</v>
       </c>
       <c r="F16" s="3">
-        <v>0.55000000000000004</v>
+        <v>18</v>
       </c>
       <c r="G16" s="3">
-        <v>1.43</v>
+        <v>4.92</v>
       </c>
       <c r="H16" s="3">
-        <v>0.96</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="I16" s="3">
-        <v>1.23</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="J16" s="3">
-        <v>2.2799999999999998</v>
+        <v>5.53</v>
       </c>
       <c r="K16" s="3">
-        <v>3.51</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>107500</v>
+        <v>402500</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E17" s="2">
-        <v>1976</v>
+        <v>1988</v>
       </c>
       <c r="F17" s="3">
-        <v>18</v>
+        <v>1.87</v>
       </c>
       <c r="G17" s="3">
-        <v>4.92</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>4.5599999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="I17" s="3">
-        <v>4.6399999999999997</v>
+        <v>5.52</v>
       </c>
       <c r="J17" s="3">
-        <v>5.53</v>
+        <v>14.98</v>
       </c>
       <c r="K17" s="3">
-        <v>10.17</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>402500</v>
+        <v>105200</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="E18" s="2">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F18" s="3">
-        <v>1.87</v>
+        <v>0.35</v>
       </c>
       <c r="G18" s="3">
-        <v>5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H18" s="3">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>5.52</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J18" s="3">
-        <v>14.98</v>
+        <v>0.6</v>
       </c>
       <c r="K18" s="3">
-        <v>20.5</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>105200</v>
+        <v>106750</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
         <v>1903</v>
       </c>
       <c r="E19" s="2">
-        <v>1987</v>
+        <v>2004</v>
       </c>
       <c r="F19" s="3">
-        <v>0.35</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="I19" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.97</v>
       </c>
       <c r="J19" s="3">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="K19" s="3">
-        <v>1.1599999999999999</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>106750</v>
+        <v>105800</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="E20" s="2">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="F20" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3">
-        <v>0.86</v>
+        <v>0.35</v>
       </c>
       <c r="H20" s="3">
-        <v>0.86</v>
+        <v>0.4</v>
       </c>
       <c r="I20" s="3">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="J20" s="3">
-        <v>2.9</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K20" s="3">
-        <v>3.87</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>105800</v>
+        <v>105700</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
         <v>1906</v>
@@ -1278,24 +1321,24 @@
         <v>0.4</v>
       </c>
       <c r="I21" s="3">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="J21" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K21" s="3">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>105700</v>
+        <v>105900</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
         <v>1906</v>
@@ -1307,86 +1350,86 @@
         <v>13</v>
       </c>
       <c r="G22" s="3">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="H22" s="3">
         <v>0.4</v>
       </c>
       <c r="I22" s="3">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="J22" s="3">
         <v>1.1599999999999999</v>
       </c>
       <c r="K22" s="3">
-        <v>2.08</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>105900</v>
+        <v>402100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
         <v>1906</v>
       </c>
       <c r="E23" s="2">
-        <v>1989</v>
+        <v>1995</v>
       </c>
       <c r="F23" s="3">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="G23" s="3">
-        <v>0.37</v>
+        <v>0.99</v>
       </c>
       <c r="H23" s="3">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="I23" s="3">
-        <v>0.91</v>
+        <v>1.7</v>
       </c>
       <c r="J23" s="3">
-        <v>1.1599999999999999</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K23" s="3">
-        <v>2.0699999999999998</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>402100</v>
+        <v>403500</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="E24" s="2">
-        <v>1995</v>
+        <v>1982</v>
       </c>
       <c r="F24" s="3">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99</v>
+        <v>1.61</v>
       </c>
       <c r="H24" s="3">
-        <v>0.95</v>
+        <v>1.57</v>
       </c>
       <c r="I24" s="3">
-        <v>1.7</v>
+        <v>0.85</v>
       </c>
       <c r="J24" s="3">
-        <v>2.2000000000000002</v>
+        <v>3.05</v>
       </c>
       <c r="K24" s="3">
         <v>3.9</v>
@@ -1394,104 +1437,104 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>403500</v>
+        <v>403300</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="E25" s="2">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3">
-        <v>1.61</v>
+        <v>2.8</v>
       </c>
       <c r="H25" s="3">
-        <v>1.57</v>
+        <v>2.8</v>
       </c>
       <c r="I25" s="3">
-        <v>0.85</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J25" s="3">
-        <v>3.05</v>
+        <v>9</v>
       </c>
       <c r="K25" s="3">
-        <v>3.9</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>403300</v>
+        <v>105600</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="E26" s="2">
         <v>1990</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="G26" s="3">
-        <v>2.8</v>
+        <v>1.22</v>
       </c>
       <c r="H26" s="3">
-        <v>2.8</v>
+        <v>0.91</v>
       </c>
       <c r="I26" s="3">
-        <v>4.4000000000000004</v>
+        <v>1.7</v>
       </c>
       <c r="J26" s="3">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="K26" s="3">
-        <v>13.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>105600</v>
+        <v>107000</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2">
-        <v>1912</v>
+        <v>1917</v>
       </c>
       <c r="E27" s="2">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="F27" s="3">
-        <v>0.6</v>
+        <v>12</v>
       </c>
       <c r="G27" s="3">
-        <v>1.22</v>
+        <v>0.98</v>
       </c>
       <c r="H27" s="3">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="I27" s="3">
-        <v>1.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J27" s="3">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="K27" s="3">
         <v>5.2</v>
@@ -1499,680 +1542,650 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>107000</v>
+        <v>106700</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>1917</v>
+        <v>1925</v>
       </c>
       <c r="E28" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="F28" s="3">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.98</v>
+        <v>1.35</v>
       </c>
       <c r="H28" s="3">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="J28" s="3">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="K28" s="3">
-        <v>5.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>106700</v>
+        <v>402900</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>1925</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2007</v>
+        <v>1927</v>
       </c>
       <c r="F29" s="3">
-        <v>6.2</v>
+        <v>0.21</v>
       </c>
       <c r="G29" s="3">
-        <v>1.35</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I29" s="3">
-        <v>3.2</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J29" s="3">
-        <v>3.8</v>
+        <v>3.89</v>
       </c>
       <c r="K29" s="3">
-        <v>7</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>402900</v>
+        <v>105300</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>1927</v>
+        <v>1928</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1987</v>
       </c>
       <c r="F30" s="3">
-        <v>0.21</v>
+        <v>0.7</v>
       </c>
       <c r="G30" s="3">
-        <v>1.1599999999999999</v>
+        <v>3.56</v>
       </c>
       <c r="H30" s="3">
-        <v>1.1599999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="I30" s="3">
-        <v>2.5499999999999998</v>
+        <v>3.17</v>
       </c>
       <c r="J30" s="3">
-        <v>3.89</v>
+        <v>8.64</v>
       </c>
       <c r="K30" s="3">
-        <v>6.44</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>105300</v>
+        <v>402200</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="E31" s="2">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="F31" s="3">
-        <v>0.7</v>
+        <v>2.34</v>
       </c>
       <c r="G31" s="3">
-        <v>3.56</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="H31" s="3">
-        <v>3.7</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="I31" s="3">
-        <v>3.17</v>
+        <v>5.16</v>
       </c>
       <c r="J31" s="3">
-        <v>8.64</v>
+        <v>8.57</v>
       </c>
       <c r="K31" s="3">
-        <v>11.81</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>402200</v>
+        <v>402600</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>1931</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1989</v>
+        <v>1943</v>
       </c>
       <c r="F32" s="3">
-        <v>2.34</v>
+        <v>0.4</v>
       </c>
       <c r="G32" s="3">
-        <v>2.5299999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="H32" s="3">
-        <v>2.5299999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="I32" s="3">
-        <v>5.16</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J32" s="3">
-        <v>8.57</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="K32" s="3">
-        <v>13.73</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>402600</v>
+        <v>106650</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
-        <v>1943</v>
+        <v>1945</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1991</v>
       </c>
       <c r="F33" s="3">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="G33" s="3">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="H33" s="3">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="I33" s="3">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="J33" s="3">
-        <v>2.3199999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="K33" s="3">
-        <v>3.47</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>106650</v>
+        <v>107600</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>1945</v>
       </c>
       <c r="E34" s="2">
-        <v>1991</v>
+        <v>2007</v>
       </c>
       <c r="F34" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G34" s="3">
-        <v>0.91</v>
+        <v>0.46</v>
       </c>
       <c r="H34" s="3">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="I34" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J34" s="3">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="K34" s="3">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>107600</v>
+        <v>402400</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="E35" s="2">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="F35" s="3">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.46</v>
+        <v>4.5</v>
       </c>
       <c r="H35" s="3">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="I35" s="3">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="J35" s="3">
-        <v>1.6</v>
+        <v>13.5</v>
       </c>
       <c r="K35" s="3">
-        <v>2.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>402400</v>
+        <v>403000</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
-        <v>1948</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2002</v>
+        <v>1950</v>
       </c>
       <c r="F36" s="3">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="G36" s="3">
-        <v>4.5</v>
+        <v>0.41</v>
       </c>
       <c r="H36" s="3">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="I36" s="3">
-        <v>5</v>
+        <v>0.53</v>
       </c>
       <c r="J36" s="3">
-        <v>13.5</v>
+        <v>1.39</v>
       </c>
       <c r="K36" s="3">
-        <v>18.5</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>403000</v>
+        <v>105000</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
         <v>1950</v>
       </c>
+      <c r="E37" s="2">
+        <v>1993</v>
+      </c>
       <c r="F37" s="3">
-        <v>0.75</v>
+        <v>0.13</v>
       </c>
       <c r="G37" s="3">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="H37" s="3">
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="I37" s="3">
-        <v>0.53</v>
+        <v>1.3</v>
       </c>
       <c r="J37" s="3">
-        <v>1.39</v>
+        <v>2.1</v>
       </c>
       <c r="K37" s="3">
-        <v>1.92</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>105000</v>
+        <v>402800</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2">
-        <v>1950</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1993</v>
+        <v>1954</v>
       </c>
       <c r="F38" s="3">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="G38" s="3">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="H38" s="3">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="I38" s="3">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="J38" s="3">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="K38" s="3">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>402800</v>
+        <v>105400</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2">
-        <v>1954</v>
+        <v>1959</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1994</v>
       </c>
       <c r="F39" s="3">
-        <v>0.15</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G39" s="3">
-        <v>0.75</v>
+        <v>0.48</v>
       </c>
       <c r="H39" s="3">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="I39" s="3">
-        <v>2.6</v>
+        <v>0.41</v>
       </c>
       <c r="J39" s="3">
-        <v>2.8</v>
+        <v>0.76</v>
       </c>
       <c r="K39" s="3">
-        <v>5.4</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>105400</v>
+        <v>402725</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2">
-        <v>1959</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1994</v>
+        <v>1974</v>
       </c>
       <c r="F40" s="3">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G40" s="3">
-        <v>0.48</v>
+        <v>1.19</v>
       </c>
       <c r="H40" s="3">
-        <v>0.44</v>
+        <v>1.19</v>
       </c>
       <c r="I40" s="3">
-        <v>0.41</v>
+        <v>1.22</v>
       </c>
       <c r="J40" s="3">
-        <v>0.76</v>
+        <v>4.79</v>
       </c>
       <c r="K40" s="3">
-        <v>1.17</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>402725</v>
+        <v>104600</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="F41" s="3">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G41" s="3">
-        <v>1.19</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="H41" s="3">
-        <v>1.19</v>
+        <v>274.3</v>
       </c>
       <c r="I41" s="3">
-        <v>1.22</v>
+        <v>48</v>
       </c>
       <c r="J41" s="3">
-        <v>4.79</v>
+        <v>127.9</v>
       </c>
       <c r="K41" s="3">
-        <v>6.01</v>
+        <v>175.9</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>104600</v>
+        <v>104700</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="F42" s="3">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G42" s="3">
-        <v>279.89999999999998</v>
+        <v>90</v>
       </c>
       <c r="H42" s="3">
-        <v>274.3</v>
+        <v>88.2</v>
       </c>
       <c r="I42" s="3">
-        <v>48</v>
+        <v>48.7</v>
       </c>
       <c r="J42" s="3">
-        <v>127.9</v>
+        <v>131.1</v>
       </c>
       <c r="K42" s="3">
-        <v>175.9</v>
+        <v>179.8</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>104700</v>
+        <v>104900</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2">
-        <v>1978</v>
+        <v>1982</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2004</v>
       </c>
       <c r="F43" s="3">
-        <v>30</v>
+        <v>0.44</v>
       </c>
       <c r="G43" s="3">
-        <v>90</v>
+        <v>1.2</v>
       </c>
       <c r="H43" s="3">
-        <v>88.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I43" s="3">
-        <v>48.7</v>
+        <v>1.8</v>
       </c>
       <c r="J43" s="3">
-        <v>131.1</v>
+        <v>3.5</v>
       </c>
       <c r="K43" s="3">
-        <v>179.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>104900</v>
+        <v>105150</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2">
-        <v>1982</v>
-      </c>
-      <c r="E44" s="2">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="F44" s="3">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="G44" s="3">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="H44" s="3">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I44" s="3">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="J44" s="3">
-        <v>3.5</v>
+        <v>1.89</v>
       </c>
       <c r="K44" s="3">
-        <v>5.3</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>105150</v>
+        <v>403150</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2">
-        <v>1987</v>
+        <v>1994</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2003</v>
       </c>
       <c r="F45" s="3">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.98</v>
+        <v>6.5</v>
       </c>
       <c r="H45" s="3">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="I45" s="3">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="J45" s="3">
-        <v>1.89</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="K45" s="3">
-        <v>2.59</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>403150</v>
+        <v>107650</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2">
-        <v>1994</v>
-      </c>
-      <c r="E46" s="2">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="F46" s="3">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="G46" s="3">
-        <v>6.5</v>
+        <v>0.3</v>
       </c>
       <c r="H46" s="3">
-        <v>6.4</v>
+        <v>0.3</v>
       </c>
       <c r="I46" s="3">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="J46" s="3">
-        <v>18.399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K46" s="3">
-        <v>23.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2">
-        <v>107650</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2008</v>
-      </c>
-      <c r="F47" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1.3</v>
-      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -2189,14 +2202,12 @@
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="9:15">
-      <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="9:15">
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="I52" s="3"/>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="9:15">
@@ -2758,7 +2769,6 @@
       <c r="O132" s="3"/>
     </row>
     <row r="133" spans="9:15">
-      <c r="I133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
